--- a/인프런.xlsx
+++ b/인프런.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwzz6\Desktop\SSAFY_GITHUB\Inflearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5788DDCE-5795-4FFC-988E-2709EFEF5480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C58261-CBB7-4880-A40D-3DA1E69F3FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{4B24163D-AD6B-4EEF-85E9-54BDF16AA96C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
   <si>
     <t>섹션 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,79 +69,87 @@
     <t>섹션 9</t>
   </si>
   <si>
-    <t>김영한의 자바 입문 - 코드로 시작하는 자바 첫걸음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김영한의 실전 자바 - 기본편</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김영한의 실전 자바 - 중급 1편</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스프링 입문 - 코드로 배우는 스프링 부트, 웹 MVC, DB 접근 기술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스프링 핵심 원리 - 기본편</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 개발자를 위한 HTTP 웹 기본 지식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스프링 MVC 1편 - 백엔드 웹 개발 핵심 기술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스프링 MVC 2편 - 백엔드 웹 개발 활용 기술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스프링 DB 1편 - 데이터 접근 핵심 원리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스프링 DB 2편 - 데이터 접근 활용 기술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스프링 핵심 원리 - 고급편</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자바 ORM 표준 JPA 프로그래밍 - 기본편</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실전! 스프링 부트와 JPA 활용1 - 웹 어플리케이션 개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실전! 스프링 부트와 JPA 활용2 - API 개발과 성능 최적화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실전! 스프링 데이터 JPA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실전! Querydsl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스프링 부트 - 핵심 원리와 활용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>섹션 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섹션 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섹션 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01. 김영한의 자바 입문 - 코드로 시작하는 자바 첫걸음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02. 김영한의 실전 자바 - 기본편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03. 김영한의 실전 자바 - 중급 1편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11. 스프링 입문 - 코드로 배우는 스프링 부트, 웹 MVC, DB 접근 기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12. 스프링 핵심 원리 - 기본편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13. 모든 개발자를 위한 HTTP 웹 기본 지식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14. 스프링 MVC 1편 - 백엔드 웹 개발 핵심 기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15. 스프링 MVC 2편 - 백엔드 웹 개발 활용 기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16. 스프링 DB 1편 - 데이터 접근 핵심 원리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17. 스프링 DB 2편 - 데이터 접근 활용 기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18. 스프링 핵심 원리 - 고급편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19. 스프링 부트 - 핵심 원리와 활용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21. 자바 ORM 표준 JPA 프로그래밍 - 기본편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22. 실전! 스프링 부트와 JPA 활용1 - 웹 어플리케이션 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23. 실전! 스프링 부트와 JPA 활용2 - API 개발과 성능 최적화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24. 실전! 스프링 데이터 JPA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25. 실전! Querydsl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +170,15 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -230,23 +247,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,387 +599,457 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC59FA6-E559-469E-9188-005CAE883B54}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="60.58203125" style="5" customWidth="1"/>
-    <col min="2" max="10" width="10.58203125" style="4"/>
-    <col min="11" max="11" width="10.58203125" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="10.58203125" style="4"/>
+    <col min="1" max="1" width="60.58203125" style="6" customWidth="1"/>
+    <col min="2" max="10" width="10.58203125" style="3"/>
+    <col min="11" max="11" width="10.58203125" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="10.58203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/인프런.xlsx
+++ b/인프런.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwzz6\Desktop\SSAFY_GITHUB\Inflearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C58261-CBB7-4880-A40D-3DA1E69F3FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1006D57-39F7-41E8-99AD-3CBB1B1EE4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{4B24163D-AD6B-4EEF-85E9-54BDF16AA96C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
   <si>
     <t>섹션 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -599,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC59FA6-E559-469E-9188-005CAE883B54}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -724,42 +724,72 @@
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>10</v>
@@ -791,57 +821,35 @@
       <c r="K7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -850,14 +858,14 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -875,7 +883,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -893,7 +901,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -911,7 +919,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -929,7 +937,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -946,7 +954,9 @@
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -963,7 +973,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -981,7 +991,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -999,7 +1009,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1015,42 +1025,6 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/인프런.xlsx
+++ b/인프런.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwzz6\Desktop\SSAFY_GITHUB\Inflearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1006D57-39F7-41E8-99AD-3CBB1B1EE4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C37C735-20D1-450E-9A01-44602AA39B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{4B24163D-AD6B-4EEF-85E9-54BDF16AA96C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
   <si>
     <t>섹션 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -681,9 +681,15 @@
       <c r="I2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="J2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
@@ -736,12 +742,24 @@
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>

--- a/인프런.xlsx
+++ b/인프런.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwzz6\Desktop\SSAFY_GITHUB\Inflearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C37C735-20D1-450E-9A01-44602AA39B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AB765E-F268-45AC-80A1-02236D26F2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{4B24163D-AD6B-4EEF-85E9-54BDF16AA96C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
   <si>
     <t>섹션 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,18 +183,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -243,7 +237,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -256,9 +250,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -269,7 +260,15 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -605,7 +604,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="60.58203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="60.58203125" style="5" customWidth="1"/>
     <col min="2" max="10" width="10.58203125" style="3"/>
     <col min="11" max="11" width="10.58203125" style="3" customWidth="1"/>
     <col min="12" max="16384" width="10.58203125" style="3"/>
@@ -657,41 +656,41 @@
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -733,135 +732,141 @@
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
@@ -1045,6 +1050,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:N18">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/인프런.xlsx
+++ b/인프런.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwzz6\Desktop\SSAFY_GITHUB\Inflearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AB765E-F268-45AC-80A1-02236D26F2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D80D85-5045-44E2-873F-2992A95F4672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{4B24163D-AD6B-4EEF-85E9-54BDF16AA96C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="32">
   <si>
     <t>섹션 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +150,10 @@
   </si>
   <si>
     <t>25. 실전! Querydsl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04. 김영한의 실전 자바 - 중급 2편</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -598,11 +602,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC59FA6-E559-469E-9188-005CAE883B54}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="60.58203125" style="5" customWidth="1"/>
     <col min="2" max="10" width="10.58203125" style="3"/>
@@ -610,7 +614,7 @@
     <col min="12" max="16384" width="10.58203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -652,7 +656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -692,7 +696,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -710,7 +714,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -728,46 +732,34 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -795,18 +787,14 @@
       <c r="J6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
@@ -838,13 +826,15 @@
       <c r="K7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="4"/>
+      <c r="L7" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
@@ -858,37 +848,57 @@
       <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="4"/>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -904,9 +914,9 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -922,9 +932,9 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -940,9 +950,9 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -958,9 +968,9 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -976,9 +986,9 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -994,9 +1004,9 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1012,9 +1022,9 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1030,9 +1040,9 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1048,9 +1058,27 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
+    <row r="19" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:N18">
+  <conditionalFormatting sqref="B2:N19">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",B2)))</formula>
     </cfRule>

--- a/인프런.xlsx
+++ b/인프런.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwzz6\Desktop\SSAFY_GITHUB\Inflearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D80D85-5045-44E2-873F-2992A95F4672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84EA8FC-F8AE-4C97-81BC-AA9850D01F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{4B24163D-AD6B-4EEF-85E9-54BDF16AA96C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="32">
   <si>
     <t>섹션 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -745,7 +745,9 @@
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>

--- a/인프런.xlsx
+++ b/인프런.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwzz6\Desktop\SSAFY_GITHUB\Inflearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84EA8FC-F8AE-4C97-81BC-AA9850D01F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A6A325-05F4-4C39-8413-62BE1C8DD907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{4B24163D-AD6B-4EEF-85E9-54BDF16AA96C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
   <si>
     <t>섹션 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -748,7 +748,9 @@
       <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>

--- a/인프런.xlsx
+++ b/인프런.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwzz6\Desktop\SSAFY_GITHUB\Inflearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A6A325-05F4-4C39-8413-62BE1C8DD907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787D469D-C4EC-4995-91DB-A49AA899E54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{4B24163D-AD6B-4EEF-85E9-54BDF16AA96C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="32">
   <si>
     <t>섹션 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -751,7 +751,9 @@
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>

--- a/인프런.xlsx
+++ b/인프런.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwzz6\Desktop\SSAFY_GITHUB\Inflearn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwzz6\Desktop\GITHUB\Inflearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787D469D-C4EC-4995-91DB-A49AA899E54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5D6620-248E-4990-B266-877152904A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{4B24163D-AD6B-4EEF-85E9-54BDF16AA96C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="32">
   <si>
     <t>섹션 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,12 +187,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -241,7 +247,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -258,6 +264,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -657,7 +666,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -754,7 +763,9 @@
       <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -763,7 +774,7 @@
       <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -799,7 +810,7 @@
       <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -839,7 +850,7 @@
       <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">

--- a/인프런.xlsx
+++ b/인프런.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwzz6\Desktop\GITHUB\Inflearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5D6620-248E-4990-B266-877152904A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80EADAE-4368-4C89-95DF-93444C513AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{4B24163D-AD6B-4EEF-85E9-54BDF16AA96C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="34">
   <si>
     <t>섹션 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,13 @@
   <si>
     <t>04. 김영한의 실전 자바 - 중급 2편</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31. [2024] 한입 크기로 잘라 먹는 리액트(React.js) : 기초부터 실전까지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섹션 13</t>
   </si>
 </sst>
 </file>
@@ -201,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -241,13 +248,30 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -267,6 +291,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -611,20 +638,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC59FA6-E559-469E-9188-005CAE883B54}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="60.58203125" style="5" customWidth="1"/>
-    <col min="2" max="10" width="10.58203125" style="3"/>
-    <col min="11" max="11" width="10.58203125" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="10.58203125" style="3"/>
+    <col min="2" max="15" width="8.58203125" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="10.58203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -664,8 +690,11 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
@@ -704,8 +733,9 @@
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -722,8 +752,9 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -740,8 +771,9 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -766,14 +798,17 @@
       <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
@@ -808,8 +843,9 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
@@ -848,8 +884,9 @@
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -886,8 +923,9 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -912,8 +950,9 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -930,8 +969,9 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -948,8 +988,9 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -966,8 +1007,9 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -984,8 +1026,9 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1002,8 +1045,9 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -1020,8 +1064,9 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1038,8 +1083,9 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -1056,8 +1102,9 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -1074,8 +1121,9 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1092,10 +1140,30 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:N19">
+  <conditionalFormatting sqref="B2:O19">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",B2)))</formula>
     </cfRule>

--- a/인프런.xlsx
+++ b/인프런.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwzz6\Desktop\GITHUB\Inflearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80EADAE-4368-4C89-95DF-93444C513AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D09248-4257-40E6-AAE3-1DCF5B7B8BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{4B24163D-AD6B-4EEF-85E9-54BDF16AA96C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="34">
   <si>
     <t>섹션 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,7 +300,14 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -640,7 +647,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC59FA6-E559-469E-9188-005CAE883B54}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1146,8 +1155,12 @@
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1163,8 +1176,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B20:C20">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",B20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:O19">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="O">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",B2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/인프런.xlsx
+++ b/인프런.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwzz6\Desktop\GITHUB\Inflearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D09248-4257-40E6-AAE3-1DCF5B7B8BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5F1C3A-D918-4348-BF41-66BBB5B71A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{4B24163D-AD6B-4EEF-85E9-54BDF16AA96C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="34">
   <si>
     <t>섹션 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -647,9 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC59FA6-E559-469E-9188-005CAE883B54}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1161,8 +1159,12 @@
       <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1176,7 +1178,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B20:C20">
+  <conditionalFormatting sqref="B20:E20">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",B20)))</formula>
     </cfRule>

--- a/인프런.xlsx
+++ b/인프런.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwzz6\Desktop\GITHUB\Inflearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5F1C3A-D918-4348-BF41-66BBB5B71A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658639AB-26F8-4FEC-A773-97770731E2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{4B24163D-AD6B-4EEF-85E9-54BDF16AA96C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="34">
   <si>
     <t>섹션 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1165,8 +1165,12 @@
       <c r="E20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1178,7 +1182,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B20:E20">
+  <conditionalFormatting sqref="B20:G20">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",B20)))</formula>
     </cfRule>

--- a/인프런.xlsx
+++ b/인프런.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwzz6\Desktop\GITHUB\Inflearn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\GITHUB\Inflearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658639AB-26F8-4FEC-A773-97770731E2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{4B24163D-AD6B-4EEF-85E9-54BDF16AA96C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="25824" windowHeight="15624"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="36">
   <si>
     <t>섹션 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,12 +161,19 @@
   </si>
   <si>
     <t>섹션 13</t>
+  </si>
+  <si>
+    <t>05. 김영한의 실전 자바 - 고급 1편, 멀티스레드와 동시성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섹션 14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -644,19 +650,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC59FA6-E559-469E-9188-005CAE883B54}">
-  <dimension ref="A1:O20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="60.58203125" style="5" customWidth="1"/>
-    <col min="2" max="15" width="8.58203125" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="10.58203125" style="3"/>
+    <col min="1" max="1" width="60.59765625" style="5" customWidth="1"/>
+    <col min="2" max="15" width="8.59765625" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="10.59765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -700,8 +706,11 @@
       <c r="O1" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="P1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
@@ -741,8 +750,9 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -760,8 +770,9 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -779,8 +790,9 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -814,47 +826,31 @@
       <c r="M5" s="2"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-    </row>
-    <row r="6" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-    </row>
-    <row r="7" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
@@ -883,19 +879,16 @@
       <c r="J7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
-    </row>
-    <row r="8" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
@@ -927,14 +920,17 @@
       <c r="K8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="4"/>
+      <c r="L8" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-    </row>
-    <row r="9" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
@@ -948,39 +944,61 @@
       <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="4"/>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-    </row>
-    <row r="10" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -996,10 +1014,11 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1015,10 +1034,11 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="P12" s="4"/>
+    </row>
+    <row r="13" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1034,10 +1054,11 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="P13" s="4"/>
+    </row>
+    <row r="14" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1053,10 +1074,11 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="P14" s="4"/>
+    </row>
+    <row r="15" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1072,10 +1094,11 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="P15" s="4"/>
+    </row>
+    <row r="16" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1091,10 +1114,11 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1110,10 +1134,11 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1129,10 +1154,11 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1148,29 +1174,18 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="P19" s="4"/>
+    </row>
+    <row r="20" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1179,19 +1194,61 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
+      <c r="P20" s="4"/>
+    </row>
+    <row r="21" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B20:G20">
+  <conditionalFormatting sqref="B21:K21">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="O">
-      <formula>NOT(ISERROR(SEARCH("O",B20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("O",B21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:O19">
+  <conditionalFormatting sqref="B2:P10 B11:O20 P11:P21">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/인프런.xlsx
+++ b/인프런.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\GITHUB\Inflearn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwzz6\Desktop\GITHUB\Inflearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255A779C-821F-42BE-87CB-032CE4749B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="25824" windowHeight="15624"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="36">
   <si>
     <t>섹션 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,7 +163,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -650,19 +640,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="60.59765625" style="5" customWidth="1"/>
-    <col min="2" max="15" width="8.59765625" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="10.59765625" style="3"/>
+    <col min="1" max="1" width="60.58203125" style="5" customWidth="1"/>
+    <col min="2" max="15" width="8.58203125" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="10.58203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -710,7 +700,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
@@ -752,7 +742,7 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -772,7 +762,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -792,7 +782,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -828,7 +818,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -848,7 +838,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -886,7 +876,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
@@ -928,7 +918,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -968,7 +958,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -996,7 +986,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1016,7 +1006,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1036,7 +1026,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1056,7 +1046,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1076,7 +1066,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="4"/>
     </row>
-    <row r="15" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -1096,7 +1086,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="4"/>
     </row>
-    <row r="16" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -1116,7 +1106,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1136,7 +1126,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="4"/>
     </row>
-    <row r="18" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -1156,7 +1146,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="4"/>
     </row>
-    <row r="19" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1176,7 +1166,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="4"/>
     </row>
-    <row r="20" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -1196,7 +1186,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="4"/>
     </row>
-    <row r="21" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -1230,15 +1220,19 @@
       <c r="K21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
+      <c r="L21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B21:K21">
+  <conditionalFormatting sqref="B21:M21">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",B21)))</formula>
     </cfRule>

--- a/인프런.xlsx
+++ b/인프런.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwzz6\Desktop\GITHUB\Inflearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255A779C-821F-42BE-87CB-032CE4749B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D158F2-337D-45A4-A7A6-692BC4AB5998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="15400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="36">
   <si>
     <t>섹션 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1187,7 +1187,7 @@
       <c r="P20" s="4"/>
     </row>
     <row r="21" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1226,13 +1226,17 @@
       <c r="M21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="N21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="P21" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B21:M21">
+  <conditionalFormatting sqref="B21:O21">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",B21)))</formula>
     </cfRule>

--- a/인프런.xlsx
+++ b/인프런.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwzz6\Desktop\GITHUB\Inflearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D158F2-337D-45A4-A7A6-692BC4AB5998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5105B0B4-D1FE-4C18-8890-259C5EAD0BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="15400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -190,7 +190,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,6 +200,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,7 +273,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -292,26 +298,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -704,37 +704,37 @@
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="4"/>
@@ -783,31 +783,31 @@
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="B5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="2"/>
@@ -839,34 +839,34 @@
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="B7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="K7" s="4"/>
@@ -877,40 +877,40 @@
       <c r="P7" s="4"/>
     </row>
     <row r="8" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="2" t="s">
+      <c r="B8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="10" t="s">
         <v>10</v>
       </c>
       <c r="M8" s="4"/>
@@ -922,34 +922,34 @@
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="B9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>10</v>
       </c>
       <c r="L9" s="4"/>
@@ -959,13 +959,13 @@
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1187,65 +1187,55 @@
       <c r="P20" s="4"/>
     </row>
     <row r="21" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O21" s="2" t="s">
+      <c r="B21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21" s="10" t="s">
         <v>10</v>
       </c>
       <c r="P21" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B21:O21">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="O">
-      <formula>NOT(ISERROR(SEARCH("O",B21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:P10 B11:O20 P11:P21">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="O">
-      <formula>NOT(ISERROR(SEARCH("O",B2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/인프런.xlsx
+++ b/인프런.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwzz6\Desktop\GITHUB\Inflearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5105B0B4-D1FE-4C18-8890-259C5EAD0BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B39DCD7-4E9C-4821-83E5-7643851375C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="36">
   <si>
     <t>섹션 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,7 +273,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -305,6 +305,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -783,7 +789,7 @@
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -810,7 +816,9 @@
       <c r="I5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -959,21 +967,13 @@
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>

--- a/인프런.xlsx
+++ b/인프런.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwzz6\Desktop\GITHUB\Inflearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B39DCD7-4E9C-4821-83E5-7643851375C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BFD143-7B40-4689-A1F9-7DC700C17D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6990" yWindow="1110" windowWidth="18580" windowHeight="14140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="36">
   <si>
     <t>섹션 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,7 +273,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -302,15 +302,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -789,34 +780,34 @@
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="10" t="s">
+      <c r="B5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="2"/>
@@ -847,34 +838,34 @@
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="10" t="s">
+      <c r="B7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="K7" s="4"/>
@@ -885,40 +876,40 @@
       <c r="P7" s="4"/>
     </row>
     <row r="8" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="10" t="s">
+      <c r="B8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="M8" s="4"/>
@@ -930,25 +921,25 @@
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="8" t="s">
+      <c r="B9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="8" t="s">
@@ -967,13 +958,19 @@
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="B10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1187,49 +1184,49 @@
       <c r="P20" s="4"/>
     </row>
     <row r="21" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="N21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="O21" s="10" t="s">
+      <c r="B21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21" s="8" t="s">
         <v>10</v>
       </c>
       <c r="P21" s="4"/>

--- a/인프런.xlsx
+++ b/인프런.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwzz6\Desktop\GITHUB\Inflearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BFD143-7B40-4689-A1F9-7DC700C17D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A96A04-11E9-415A-9B4B-5B39DCAD4462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6990" yWindow="1110" windowWidth="18580" windowHeight="14140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="43">
   <si>
     <t>섹션 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,6 +158,34 @@
   </si>
   <si>
     <t>섹션 14</t>
+  </si>
+  <si>
+    <t>이해 수준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대충 안다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀 안다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘 안다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1회독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2회독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3회독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -190,7 +218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +234,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,7 +307,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -303,6 +337,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,7 +681,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -649,7 +692,7 @@
     <col min="16" max="16384" width="10.58203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -697,49 +740,54 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="B2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-    </row>
-    <row r="3" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+    </row>
+    <row r="3" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -758,8 +806,17 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -778,8 +835,17 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -817,7 +883,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -837,7 +903,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -875,7 +941,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
@@ -917,7 +983,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -957,7 +1023,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -970,10 +1036,18 @@
       <c r="D10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="E10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="4"/>
@@ -983,7 +1057,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1003,7 +1077,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1023,7 +1097,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1043,7 +1117,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1063,7 +1137,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="4"/>
     </row>
-    <row r="15" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -1083,7 +1157,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="4"/>
     </row>
-    <row r="16" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -1232,6 +1306,9 @@
       <c r="P21" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="R2:T2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/인프런.xlsx
+++ b/인프런.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwzz6\Desktop\GITHUB\Inflearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A96A04-11E9-415A-9B4B-5B39DCAD4462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB276CF-9C4F-4835-A0DA-8B93FCD562F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="43">
   <si>
     <t>섹션 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -338,14 +338,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,51 +741,51 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="B2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
     </row>
     <row r="3" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -812,7 +812,7 @@
       <c r="S3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="T3" s="10" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1048,8 +1048,12 @@
       <c r="H10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="I10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>

--- a/인프런.xlsx
+++ b/인프런.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwzz6\Desktop\GITHUB\Inflearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB276CF-9C4F-4835-A0DA-8B93FCD562F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4B60A7-1E36-435D-A4D5-3AF833C6E285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="43">
   <si>
     <t>섹션 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -876,7 +876,9 @@
       <c r="J5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="K5" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="4"/>

--- a/인프런.xlsx
+++ b/인프런.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwzz6\Desktop\GITHUB\Inflearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4B60A7-1E36-435D-A4D5-3AF833C6E285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FAA924-79C8-46AF-BEC4-E1283CDD81BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="43">
   <si>
     <t>섹션 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -683,13 +683,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showFormulas="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="60.58203125" style="5" customWidth="1"/>
-    <col min="2" max="15" width="8.58203125" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="10.58203125" style="3"/>
+    <col min="1" max="1" width="30.58203125" style="5" customWidth="1"/>
+    <col min="2" max="17" width="3.58203125" style="3"/>
+    <col min="18" max="20" width="5.58203125" style="3" customWidth="1"/>
+    <col min="21" max="16384" width="3.58203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.45">
@@ -1187,20 +1188,28 @@
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="B17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
       <c r="P17" s="4"/>
     </row>
     <row r="18" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">

--- a/인프런.xlsx
+++ b/인프런.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwzz6\Desktop\GITHUB\Inflearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FAA924-79C8-46AF-BEC4-E1283CDD81BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA5FF19-02FF-480A-A647-BC73F5FCE103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3100" yWindow="790" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="43">
   <si>
     <t>섹션 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1168,10 +1168,16 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1181,11 +1187,11 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="O16" s="4"/>
       <c r="P16" s="4"/>
     </row>
     <row r="17" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -1200,10 +1206,18 @@
       <c r="E17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="F17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
